--- a/biology/Botanique/Brassicales/Brassicales.xlsx
+++ b/biology/Botanique/Brassicales/Brassicales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Brassicales regroupe des plantes dicotylédones ; il a été introduit par la classification phylogénétique APG (1998)[1]. L'ordre contient actuellement 17 familles, 398 genres et environ 4450 espèces, dont un grand groupe de plantes d'intérêt économique important (à savoir le groupe de la papaye et le groupe du colza, les choux et navets).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Brassicales regroupe des plantes dicotylédones ; il a été introduit par la classification phylogénétique APG (1998). L'ordre contient actuellement 17 familles, 398 genres et environ 4450 espèces, dont un grand groupe de plantes d'intérêt économique important (à savoir le groupe de la papaye et le groupe du colza, les choux et navets).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Brassicales a une caractéristique commune à la plupart de ses membres, à savoir la capacité de produire des composés glucosinolates et de l'enzyme myrosinase associée. Lorsque le tissu est blessé, la myrosinase s'échappe des idioblastes spéciaux, servant à se défendre contre les herbivores.
 L'ovaire se compose généralement de trois carpelles fusionnés et est supère. La placentation est fréquemment pariétale, et un périanthe évident.
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Classification actuelle
-En classification phylogénétique APG III (2009)[3] il comprend les familles suivantes :
+          <t>Classification actuelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En classification phylogénétique APG III (2009) il comprend les familles suivantes :
 ordre Brassicales Bromhead (1838)
 : famille Akaniaceae Stapf (1912) (incluant Bretschneideraceae Engl. &amp; Gilg)
 : famille Bataceae Mart. ex Perleb (1838)
@@ -564,9 +583,43 @@
 : famille Salvadoraceae Lindl. (1836)
 : famille Setchellanthaceae Iltis (1999)
 : famille Tovariaceae Pax (1891)
-: famille Tropaeolaceae Juss. ex DC. (1824)
-Anciennes classifications
-En classification phylogénétique APG II (2003)[4] il comprenait les familles suivantes :
+: famille Tropaeolaceae Juss. ex DC. (1824)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brassicales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brassicales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classifications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Anciennes classifications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En classification phylogénétique APG II (2003) il comprenait les familles suivantes :
 ordre Brassicales
 : famille Akaniaceae
 :: [+ famille Bretschneideraceae ]
